--- a/assets/misc/2023/2023_BatonRouge_BI_Attendance.xlsx
+++ b/assets/misc/2023/2023_BatonRouge_BI_Attendance.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F2A547-1BA7-4FB1-9425-CC68283DD532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14662AE-FC63-437B-8164-C32CE940DBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="1560" windowWidth="23820" windowHeight="13710"/>
+    <workbookView xWindow="1950" yWindow="1035" windowWidth="25815" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1026,11 +1026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,6 +1068,9 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
@@ -1082,6 +1085,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
       <c r="E3" t="s">
         <v>45</v>
       </c>
@@ -1096,6 +1102,9 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
@@ -1110,6 +1119,9 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
       <c r="E5" t="s">
         <v>47</v>
       </c>
@@ -1124,6 +1136,9 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
       <c r="E6" t="s">
         <v>48</v>
       </c>
@@ -1138,6 +1153,9 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
@@ -1152,6 +1170,9 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
       <c r="E8" t="s">
         <v>50</v>
       </c>
@@ -1166,6 +1187,9 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
@@ -1180,6 +1204,9 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1191,6 +1218,9 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
       <c r="E11" t="s">
         <v>44</v>
       </c>
@@ -1205,6 +1235,9 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
@@ -1219,6 +1252,9 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
@@ -1233,6 +1269,9 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
       <c r="E14" t="s">
         <v>50</v>
       </c>
@@ -1247,6 +1286,9 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
       <c r="E15" t="s">
         <v>52</v>
       </c>
@@ -1261,6 +1303,9 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
@@ -1275,6 +1320,9 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
       <c r="E17" t="s">
         <v>53</v>
       </c>
@@ -1289,6 +1337,9 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
@@ -1303,6 +1354,9 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
       <c r="E19" t="s">
         <v>45</v>
       </c>
@@ -1317,6 +1371,9 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
       <c r="E20" t="s">
         <v>43</v>
       </c>
@@ -1330,6 +1387,9 @@
       </c>
       <c r="C21" t="s">
         <v>36</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
